--- a/최종발표/16.테이블 정의.xlsx
+++ b/최종발표/16.테이블 정의.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9AD23F-75EB-476A-91D6-855070E14328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852C212A-214D-489F-98FA-CF4F51F0F2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="228">
   <si>
     <t>엔티티타입명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -257,6 +256,654 @@
   </si>
   <si>
     <t>ACTORNAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERIFICATION</t>
+  </si>
+  <si>
+    <t>본인인증</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERNAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERPHONE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERBIRTH</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERS</t>
+  </si>
+  <si>
+    <t>식별아이디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분코드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERCODE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONMEMBERS_INFO</t>
+  </si>
+  <si>
+    <t>비회원정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시비밀번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청가능여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONMEMID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONMEMPWD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONMEMNAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONMEMPHONE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONMEMBIRTH</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISVERIFICATION</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISCLASS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBERS_INFO</t>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총포인트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMPWD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMNAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMEMAIL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMPHONE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBIRTH</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTALPOINT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>최애장르정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BESTGENRE_INFO</t>
+  </si>
+  <si>
+    <t>회원정보_아이디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>최애장르</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BESTGENRE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGERS_INFO</t>
+  </si>
+  <si>
+    <t>관리자정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNGID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNGPWD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNGNAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCALNO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCALNAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMA</t>
+  </si>
+  <si>
+    <t>영화관</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역_식별문자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMANO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMANAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCREENWAY</t>
+  </si>
+  <si>
+    <t>상영방식</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영금액</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEATER</t>
+  </si>
+  <si>
+    <t>상영관</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관_식별문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총좌석수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적좌석수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영방식_식별문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEATERNO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEATTTL</t>
+  </si>
+  <si>
+    <t>SEATCNT</t>
+  </si>
+  <si>
+    <t>SCRWAYNO</t>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE</t>
+  </si>
+  <si>
+    <t>상영일정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관_식별문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화_식별문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHNO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHTIME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAT</t>
+  </si>
+  <si>
+    <t>좌석</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정_식별문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEATNO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISEMPTY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVIEGOERS</t>
+  </si>
+  <si>
+    <t>관객방식</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOERSNO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOERSWAY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOERSDC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKING</t>
+  </si>
+  <si>
+    <t>예매</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매시각</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKINGNO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOERSCNT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKINGDATE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKSEAT_INFO</t>
+  </si>
+  <si>
+    <t>예매좌석정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매_식별문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석_좌석문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객방식_식별문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOERSNO</t>
+  </si>
+  <si>
+    <t>PAYWAY</t>
+  </si>
+  <si>
+    <t>결제방식</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYWAYNO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYWAYCODE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREDITCARD_INFO</t>
+  </si>
+  <si>
+    <t>신용카드정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식_식별문자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드사</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARDNAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARDNUM</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPOSIT_INFO</t>
+  </si>
+  <si>
+    <t>무통장입금정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행사</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANKNAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNTNUM</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷결제정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONLINEPAY_INFO</t>
+  </si>
+  <si>
+    <t>QR코드</t>
+  </si>
+  <si>
+    <t>QRCODE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYING</t>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제금액</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매_식별문자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYNO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRICE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYLIST_INFO</t>
+  </si>
+  <si>
+    <t>결제내역정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제_식별문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자_식별아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYDATE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISVALID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISWATCHED</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT</t>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용포인트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보_아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINTNO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINTWAY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINTTMP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINTLIST_INFO</t>
+  </si>
+  <si>
+    <t>포인트내역정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트_식별문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PONITNO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINTDATE</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -351,6 +998,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,14 +1293,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.58203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -655,11 +1315,11 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -858,11 +1518,11 @@
       <c r="C14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
@@ -961,11 +1621,11 @@
       <c r="C21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
@@ -1054,11 +1714,11 @@
       <c r="C27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
@@ -1094,7 +1754,9 @@
         <v>7</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
@@ -1118,806 +1780,2434 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D34" s="2"/>
+      <c r="A32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D35" s="2"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2">
+        <v>11</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D40" s="2"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="2">
+        <v>20</v>
+      </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D41" s="2"/>
+      <c r="F40" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D45" s="2"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2">
+        <v>20</v>
+      </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D46" s="2"/>
+      <c r="F45" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2">
+        <v>20</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D47" s="2"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="2">
+        <v>10</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D48" s="2"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="2">
+        <v>11</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D55" s="2"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="2">
+        <v>20</v>
+      </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D56" s="2"/>
+      <c r="F55" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="2">
+        <v>20</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D57" s="2"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="2">
+        <v>10</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D58" s="2"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="2">
+        <v>40</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D59" s="2"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="2">
+        <v>11</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D63" s="2"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="2">
+        <v>6</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D67" s="2"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="2">
+        <v>20</v>
+      </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D68" s="2"/>
+      <c r="F67" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="2">
+        <v>10</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B69" s="6"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D72" s="2"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="2">
+        <v>20</v>
+      </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D73" s="2"/>
+      <c r="F72" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="2">
+        <v>10</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D74" s="2"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="2">
+        <v>10</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D78" s="2"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D78" s="2">
+        <v>7</v>
+      </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D79" s="2"/>
+      <c r="F78" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="2">
+        <v>10</v>
+      </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D83" s="2"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="2">
+        <v>8</v>
+      </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D84" s="2"/>
+      <c r="F83" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="2">
+        <v>10</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D85" s="2"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" s="2">
+        <v>7</v>
+      </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F85" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D89" s="2"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" s="2">
+        <v>8</v>
+      </c>
       <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D90" s="2"/>
+      <c r="F89" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="2">
+        <v>8</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D91" s="2"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="2">
+        <v>5</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D95" s="2"/>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" s="2">
+        <v>9</v>
+      </c>
       <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D96" s="2"/>
+      <c r="F95" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="2">
+        <v>8</v>
+      </c>
       <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D97" s="2"/>
+      <c r="F96" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97" s="2">
+        <v>3</v>
+      </c>
       <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D98" s="2"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" s="2">
+        <v>3</v>
+      </c>
       <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D99" s="2"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="2">
+        <v>8</v>
+      </c>
       <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F99" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D103" s="2"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="2">
+        <v>10</v>
+      </c>
       <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F103" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D105" s="2"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="2">
+        <v>8</v>
+      </c>
       <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D106" s="2"/>
+      <c r="F105" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="2">
+        <v>9</v>
+      </c>
       <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D107" s="2"/>
+      <c r="F106" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="2">
+        <v>7</v>
+      </c>
       <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F107" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D111" s="2"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" s="2">
+        <v>3</v>
+      </c>
       <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D112" s="2"/>
+      <c r="F111" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="2">
+        <v>8</v>
+      </c>
       <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D113" s="2"/>
+      <c r="F112" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" s="2">
+        <v>9</v>
+      </c>
       <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D114" s="2"/>
+      <c r="F113" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114" s="2">
+        <v>10</v>
+      </c>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F114" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D119" s="2"/>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119" s="2">
+        <v>7</v>
+      </c>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D120" s="2"/>
+      <c r="F119" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" s="2">
+        <v>10</v>
+      </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D121" s="2"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D121" s="2">
+        <v>2</v>
+      </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D125" s="2"/>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" s="2">
+        <v>11</v>
+      </c>
       <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D126" s="2"/>
+      <c r="F125" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2</v>
+      </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D131" s="2"/>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D131" s="2">
+        <v>11</v>
+      </c>
       <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D132" s="2"/>
+      <c r="F131" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D132" s="2">
+        <v>3</v>
+      </c>
       <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D133" s="2"/>
+      <c r="F132" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133" s="2">
+        <v>8</v>
+      </c>
       <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D134" s="2"/>
+      <c r="F133" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" s="2">
+        <v>9</v>
+      </c>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D135" s="2"/>
+      <c r="F134" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="2">
+        <v>10</v>
+      </c>
       <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D136" s="2"/>
+      <c r="F135" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136" s="2">
+        <v>7</v>
+      </c>
       <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F136" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-    </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D140" s="2"/>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D140" s="2">
+        <v>7</v>
+      </c>
       <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D141" s="2"/>
+      <c r="F140" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-    </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D145" s="2"/>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D145" s="2">
+        <v>7</v>
+      </c>
       <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-    </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D146" s="2"/>
+      <c r="F145" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D146" s="2">
+        <v>20</v>
+      </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D147" s="2"/>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" s="2">
+        <v>20</v>
+      </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-    </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-    </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D152" s="2"/>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D151" s="3">
+        <v>7</v>
+      </c>
+      <c r="E151" s="3"/>
+      <c r="F151" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D152" s="2">
+        <v>10</v>
+      </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D153" s="2"/>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153" s="2">
+        <v>20</v>
+      </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-    </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-    </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-    </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D157" s="3">
+        <v>7</v>
+      </c>
+      <c r="E157" s="3"/>
+      <c r="F157" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-    </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-    </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D162" s="2"/>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" s="2">
+        <v>7</v>
+      </c>
       <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D163" s="2"/>
+      <c r="F162" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D163" s="2">
+        <v>7</v>
+      </c>
       <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-    </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D164" s="2"/>
+      <c r="F163" s="5"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D164" s="2">
+        <v>11</v>
+      </c>
       <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D165" s="2"/>
+      <c r="F164" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" s="2">
+        <v>7</v>
+      </c>
       <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F165" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-    </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D169" s="2"/>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A168" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D169" s="2">
+        <v>7</v>
+      </c>
       <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D170" s="2"/>
+      <c r="F169" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D170" s="2">
+        <v>20</v>
+      </c>
       <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F170" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A172" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-    </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D177" s="2"/>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A175" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="2">
+        <v>9</v>
+      </c>
       <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-    </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F177" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-    </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D179" s="2"/>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D179" s="2">
+        <v>6</v>
+      </c>
       <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-    </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D180" s="2"/>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A180" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180" s="2">
+        <v>20</v>
+      </c>
       <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-    </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D181" s="2"/>
+      <c r="F180" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A181" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="2">
+        <v>7</v>
+      </c>
       <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-    </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F181" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-    </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-    </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D185" s="2"/>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A183" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A184" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A185" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D185" s="2">
+        <v>9</v>
+      </c>
       <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-    </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D186" s="2"/>
+      <c r="F185" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A186" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D186" s="2">
+        <v>20</v>
+      </c>
       <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-    </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F186" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A187" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-    </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F187" s="11"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A188" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -2183,69 +4473,37 @@
       <c r="F244" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="27">
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D70:F70"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142D6B93-FC01-453E-8757-5FD289731A89}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="20.58203125" customWidth="1"/>
-    <col min="2" max="3" width="15.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>